--- a/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_15000_1.xlsx
+++ b/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_15000_1.xlsx
@@ -534,647 +534,647 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1)}</t>
+          <t>{'GINI': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29021</v>
+        <v>15415</v>
       </c>
       <c r="C2" t="n">
-        <v>1401.707980435202</v>
+        <v>3909.763022827451</v>
       </c>
       <c r="D2" t="n">
-        <v>-938.5991207968711</v>
+        <v>1569.455921595378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29293</v>
+        <v>18214</v>
       </c>
       <c r="C3" t="n">
-        <v>3376.618546190469</v>
+        <v>1675.615283759511</v>
       </c>
       <c r="D3" t="n">
-        <v>1036.311444958395</v>
+        <v>-664.6918174725627</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16905</v>
+        <v>18231</v>
       </c>
       <c r="C4" t="n">
-        <v>4641.28726359447</v>
+        <v>2567.765575376772</v>
       </c>
       <c r="D4" t="n">
-        <v>2300.980162362396</v>
+        <v>227.4584741446988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22256</v>
+        <v>27820</v>
       </c>
       <c r="C5" t="n">
-        <v>2060.921806857401</v>
+        <v>3110.102123995851</v>
       </c>
       <c r="D5" t="n">
-        <v>-279.385294374672</v>
+        <v>769.795022763778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21517</v>
+        <v>23188</v>
       </c>
       <c r="C6" t="n">
-        <v>1554.608036444616</v>
+        <v>5816.966437870303</v>
       </c>
       <c r="D6" t="n">
-        <v>-785.6990647874572</v>
+        <v>3476.659336638229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33253</v>
+        <v>19387</v>
       </c>
       <c r="C7" t="n">
-        <v>2414.597715806006</v>
+        <v>4147.833642739099</v>
       </c>
       <c r="D7" t="n">
-        <v>74.29061457393254</v>
+        <v>1807.526541507025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Age': np.int64(3), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27355</v>
+        <v>15730</v>
       </c>
       <c r="C8" t="n">
-        <v>4330.769757430748</v>
+        <v>4986.040708791625</v>
       </c>
       <c r="D8" t="n">
-        <v>1990.462656198674</v>
+        <v>2645.733607559551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24150</v>
+        <v>23587</v>
       </c>
       <c r="C9" t="n">
-        <v>2618.939627923435</v>
+        <v>3426.977602174042</v>
       </c>
       <c r="D9" t="n">
-        <v>278.6325266913614</v>
+        <v>1086.670500941968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'Age': np.int64(3)}</t>
+          <t>{'GINI': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18184</v>
+        <v>15786</v>
       </c>
       <c r="C10" t="n">
-        <v>5277.431638917058</v>
+        <v>3313.353978625743</v>
       </c>
       <c r="D10" t="n">
-        <v>2937.124537684985</v>
+        <v>973.0468773936695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27409</v>
+        <v>16065</v>
       </c>
       <c r="C11" t="n">
-        <v>2027.093158772808</v>
+        <v>4959.317262945568</v>
       </c>
       <c r="D11" t="n">
-        <v>-313.2139424592651</v>
+        <v>2619.010161713495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'GDP': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15813</v>
+        <v>21070</v>
       </c>
       <c r="C12" t="n">
-        <v>427.6763280714937</v>
+        <v>1590.651990662487</v>
       </c>
       <c r="D12" t="n">
-        <v>-1912.63077316058</v>
+        <v>-749.6551105695862</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'GINI': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18821</v>
+        <v>17057</v>
       </c>
       <c r="C13" t="n">
-        <v>3384.17273762318</v>
+        <v>3997.707860974062</v>
       </c>
       <c r="D13" t="n">
-        <v>1043.865636391106</v>
+        <v>1657.400759741989</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23980</v>
+        <v>15642</v>
       </c>
       <c r="C14" t="n">
-        <v>2716.105118301271</v>
+        <v>3350.630733051658</v>
       </c>
       <c r="D14" t="n">
-        <v>375.7980170691981</v>
+        <v>1010.323631819585</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Hobby': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18492</v>
+        <v>17270</v>
       </c>
       <c r="C15" t="n">
-        <v>1518.308014607594</v>
+        <v>1867.62820136353</v>
       </c>
       <c r="D15" t="n">
-        <v>-821.9990866244791</v>
+        <v>-472.6788998685436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Hobby': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17963</v>
+        <v>20356</v>
       </c>
       <c r="C16" t="n">
-        <v>-101.5387529710462</v>
+        <v>1383.848501236791</v>
       </c>
       <c r="D16" t="n">
-        <v>-2441.845854203119</v>
+        <v>-956.4585999952828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27456</v>
+        <v>16852</v>
       </c>
       <c r="C17" t="n">
-        <v>1181.715079650815</v>
+        <v>3149.837078595702</v>
       </c>
       <c r="D17" t="n">
-        <v>-1158.592021581258</v>
+        <v>809.5299773636289</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22770</v>
+        <v>16823</v>
       </c>
       <c r="C18" t="n">
-        <v>3775.464065673236</v>
+        <v>1441.843959195062</v>
       </c>
       <c r="D18" t="n">
-        <v>1435.156964441163</v>
+        <v>-898.4631420370113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20214</v>
+        <v>25910</v>
       </c>
       <c r="C19" t="n">
-        <v>2976.278412994609</v>
+        <v>4246.354118795837</v>
       </c>
       <c r="D19" t="n">
-        <v>635.9713117625356</v>
+        <v>1906.047017563764</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Dependents': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15096</v>
+        <v>22568</v>
       </c>
       <c r="C20" t="n">
-        <v>4209.44231883356</v>
+        <v>2955.158541757981</v>
       </c>
       <c r="D20" t="n">
-        <v>1869.135217601486</v>
+        <v>614.8514405259079</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Age': np.int64(3), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22809</v>
+        <v>17245</v>
       </c>
       <c r="C21" t="n">
-        <v>958.2290161411431</v>
+        <v>6222.400724925114</v>
       </c>
       <c r="D21" t="n">
-        <v>-1382.07808509093</v>
+        <v>3882.09362369304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'GINI': np.int64(2), 'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15415</v>
+        <v>29021</v>
       </c>
       <c r="C22" t="n">
-        <v>3909.763022827451</v>
+        <v>1401.707980435202</v>
       </c>
       <c r="D22" t="n">
-        <v>1569.455921595378</v>
+        <v>-938.5991207968711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18214</v>
+        <v>29293</v>
       </c>
       <c r="C23" t="n">
-        <v>1675.615283759511</v>
+        <v>3376.618546190469</v>
       </c>
       <c r="D23" t="n">
-        <v>-664.6918174725627</v>
+        <v>1036.311444958395</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18231</v>
+        <v>16905</v>
       </c>
       <c r="C24" t="n">
-        <v>2567.765575376772</v>
+        <v>4641.28726359447</v>
       </c>
       <c r="D24" t="n">
-        <v>227.4584741446988</v>
+        <v>2300.980162362396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27820</v>
+        <v>22256</v>
       </c>
       <c r="C25" t="n">
-        <v>3110.102123995851</v>
+        <v>2060.921806857401</v>
       </c>
       <c r="D25" t="n">
-        <v>769.795022763778</v>
+        <v>-279.385294374672</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23188</v>
+        <v>21517</v>
       </c>
       <c r="C26" t="n">
-        <v>5816.966437870303</v>
+        <v>1554.608036444616</v>
       </c>
       <c r="D26" t="n">
-        <v>3476.659336638229</v>
+        <v>-785.6990647874572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19387</v>
+        <v>33253</v>
       </c>
       <c r="C27" t="n">
-        <v>4147.833642739099</v>
+        <v>2414.597715806006</v>
       </c>
       <c r="D27" t="n">
-        <v>1807.526541507025</v>
+        <v>74.29061457393254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15730</v>
+        <v>27355</v>
       </c>
       <c r="C28" t="n">
-        <v>4986.040708791625</v>
+        <v>4330.769757430748</v>
       </c>
       <c r="D28" t="n">
-        <v>2645.733607559551</v>
+        <v>1990.462656198674</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23587</v>
+        <v>24150</v>
       </c>
       <c r="C29" t="n">
-        <v>3426.977602174042</v>
+        <v>2618.939627923435</v>
       </c>
       <c r="D29" t="n">
-        <v>1086.670500941968</v>
+        <v>278.6325266913614</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15786</v>
+        <v>18184</v>
       </c>
       <c r="C30" t="n">
-        <v>3313.353978625743</v>
+        <v>5277.431638917058</v>
       </c>
       <c r="D30" t="n">
-        <v>973.0468773936695</v>
+        <v>2937.124537684985</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'FormalEducation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16065</v>
+        <v>27409</v>
       </c>
       <c r="C31" t="n">
-        <v>4959.317262945568</v>
+        <v>2027.093158772808</v>
       </c>
       <c r="D31" t="n">
-        <v>2619.010161713495</v>
+        <v>-313.2139424592651</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21070</v>
+        <v>15813</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.651990662487</v>
+        <v>427.6763280714937</v>
       </c>
       <c r="D32" t="n">
-        <v>-749.6551105695862</v>
+        <v>-1912.63077316058</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17057</v>
+        <v>18821</v>
       </c>
       <c r="C33" t="n">
-        <v>3997.707860974062</v>
+        <v>3384.17273762318</v>
       </c>
       <c r="D33" t="n">
-        <v>1657.400759741989</v>
+        <v>1043.865636391106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15642</v>
+        <v>23980</v>
       </c>
       <c r="C34" t="n">
-        <v>3350.630733051658</v>
+        <v>2716.105118301271</v>
       </c>
       <c r="D34" t="n">
-        <v>1010.323631819585</v>
+        <v>375.7980170691981</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17270</v>
+        <v>18492</v>
       </c>
       <c r="C35" t="n">
-        <v>1867.62820136353</v>
+        <v>1518.308014607594</v>
       </c>
       <c r="D35" t="n">
-        <v>-472.6788998685436</v>
+        <v>-821.9990866244791</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20356</v>
+        <v>17963</v>
       </c>
       <c r="C36" t="n">
-        <v>1383.848501236791</v>
+        <v>-101.5387529710462</v>
       </c>
       <c r="D36" t="n">
-        <v>-956.4585999952828</v>
+        <v>-2441.845854203119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16852</v>
+        <v>27456</v>
       </c>
       <c r="C37" t="n">
-        <v>3149.837078595702</v>
+        <v>1181.715079650815</v>
       </c>
       <c r="D37" t="n">
-        <v>809.5299773636289</v>
+        <v>-1158.592021581258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16823</v>
+        <v>22770</v>
       </c>
       <c r="C38" t="n">
-        <v>1441.843959195062</v>
+        <v>3775.464065673236</v>
       </c>
       <c r="D38" t="n">
-        <v>-898.4631420370113</v>
+        <v>1435.156964441163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25910</v>
+        <v>20214</v>
       </c>
       <c r="C39" t="n">
-        <v>4246.354118795837</v>
+        <v>2976.278412994609</v>
       </c>
       <c r="D39" t="n">
-        <v>1906.047017563764</v>
+        <v>635.9713117625356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Age': np.int64(3), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22568</v>
+        <v>15096</v>
       </c>
       <c r="C40" t="n">
-        <v>2955.158541757981</v>
+        <v>4209.44231883356</v>
       </c>
       <c r="D40" t="n">
-        <v>614.8514405259079</v>
+        <v>1869.135217601486</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17245</v>
+        <v>22809</v>
       </c>
       <c r="C41" t="n">
-        <v>6222.400724925114</v>
+        <v>958.2290161411431</v>
       </c>
       <c r="D41" t="n">
-        <v>3882.09362369304</v>
+        <v>-1382.07808509093</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1190,7 +1190,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'GINI': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1238,7 +1238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1254,7 +1254,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'GDP': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1270,7 +1270,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1286,7 +1286,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1302,7 +1302,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1318,7 +1318,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1334,7 +1334,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1350,7 +1350,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1366,7 +1366,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1382,7 +1382,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1398,7 +1398,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1414,7 +1414,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1430,7 +1430,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1462,7 +1462,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1478,7 +1478,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1494,7 +1494,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1526,7 +1526,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1542,7 +1542,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1558,7 +1558,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1574,7 +1574,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1590,7 +1590,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1606,7 +1606,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1622,7 +1622,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1654,7 +1654,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1670,7 +1670,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1686,7 +1686,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1702,7 +1702,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1718,7 +1718,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1734,7 +1734,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1750,7 +1750,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1766,7 +1766,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1782,7 +1782,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1798,7 +1798,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1814,7 +1814,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1830,7 +1830,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B83" t="n">

--- a/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_15000_1.xlsx
+++ b/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_15000_1.xlsx
@@ -534,647 +534,647 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'GINI': np.int64(2), 'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15415</v>
+        <v>29021</v>
       </c>
       <c r="C2" t="n">
-        <v>3909.763022827451</v>
+        <v>1401.707980435202</v>
       </c>
       <c r="D2" t="n">
-        <v>1569.455921595378</v>
+        <v>-938.5991207968711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18214</v>
+        <v>29293</v>
       </c>
       <c r="C3" t="n">
-        <v>1675.615283759511</v>
+        <v>3376.618546190469</v>
       </c>
       <c r="D3" t="n">
-        <v>-664.6918174725627</v>
+        <v>1036.311444958395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'FormalEducation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18231</v>
+        <v>16905</v>
       </c>
       <c r="C4" t="n">
-        <v>2567.765575376772</v>
+        <v>4641.28726359447</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4584741446988</v>
+        <v>2300.980162362396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27820</v>
+        <v>22256</v>
       </c>
       <c r="C5" t="n">
-        <v>3110.102123995851</v>
+        <v>2060.921806857401</v>
       </c>
       <c r="D5" t="n">
-        <v>769.795022763778</v>
+        <v>-279.385294374672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23188</v>
+        <v>21517</v>
       </c>
       <c r="C6" t="n">
-        <v>5816.966437870303</v>
+        <v>1554.608036444616</v>
       </c>
       <c r="D6" t="n">
-        <v>3476.659336638229</v>
+        <v>-785.6990647874572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19387</v>
+        <v>33253</v>
       </c>
       <c r="C7" t="n">
-        <v>4147.833642739099</v>
+        <v>2414.597715806006</v>
       </c>
       <c r="D7" t="n">
-        <v>1807.526541507025</v>
+        <v>74.29061457393254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'Age': np.int64(3), 'Student': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15730</v>
+        <v>27355</v>
       </c>
       <c r="C8" t="n">
-        <v>4986.040708791625</v>
+        <v>4330.769757430748</v>
       </c>
       <c r="D8" t="n">
-        <v>2645.733607559551</v>
+        <v>1990.462656198674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23587</v>
+        <v>24150</v>
       </c>
       <c r="C9" t="n">
-        <v>3426.977602174042</v>
+        <v>2618.939627923435</v>
       </c>
       <c r="D9" t="n">
-        <v>1086.670500941968</v>
+        <v>278.6325266913614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'GINI': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15786</v>
+        <v>18184</v>
       </c>
       <c r="C10" t="n">
-        <v>3313.353978625743</v>
+        <v>5277.431638917058</v>
       </c>
       <c r="D10" t="n">
-        <v>973.0468773936695</v>
+        <v>2937.124537684985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16065</v>
+        <v>27409</v>
       </c>
       <c r="C11" t="n">
-        <v>4959.317262945568</v>
+        <v>2027.093158772808</v>
       </c>
       <c r="D11" t="n">
-        <v>2619.010161713495</v>
+        <v>-313.2139424592651</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21070</v>
+        <v>15813</v>
       </c>
       <c r="C12" t="n">
-        <v>1590.651990662487</v>
+        <v>427.6763280714937</v>
       </c>
       <c r="D12" t="n">
-        <v>-749.6551105695862</v>
+        <v>-1912.63077316058</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17057</v>
+        <v>18821</v>
       </c>
       <c r="C13" t="n">
-        <v>3997.707860974062</v>
+        <v>3384.17273762318</v>
       </c>
       <c r="D13" t="n">
-        <v>1657.400759741989</v>
+        <v>1043.865636391106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15642</v>
+        <v>23980</v>
       </c>
       <c r="C14" t="n">
-        <v>3350.630733051658</v>
+        <v>2716.105118301271</v>
       </c>
       <c r="D14" t="n">
-        <v>1010.323631819585</v>
+        <v>375.7980170691981</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17270</v>
+        <v>18492</v>
       </c>
       <c r="C15" t="n">
-        <v>1867.62820136353</v>
+        <v>1518.308014607594</v>
       </c>
       <c r="D15" t="n">
-        <v>-472.6788998685436</v>
+        <v>-821.9990866244791</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20356</v>
+        <v>17963</v>
       </c>
       <c r="C16" t="n">
-        <v>1383.848501236791</v>
+        <v>-101.5387529710462</v>
       </c>
       <c r="D16" t="n">
-        <v>-956.4585999952828</v>
+        <v>-2441.845854203119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16852</v>
+        <v>27456</v>
       </c>
       <c r="C17" t="n">
-        <v>3149.837078595702</v>
+        <v>1181.715079650815</v>
       </c>
       <c r="D17" t="n">
-        <v>809.5299773636289</v>
+        <v>-1158.592021581258</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16823</v>
+        <v>22770</v>
       </c>
       <c r="C18" t="n">
-        <v>1441.843959195062</v>
+        <v>3775.464065673236</v>
       </c>
       <c r="D18" t="n">
-        <v>-898.4631420370113</v>
+        <v>1435.156964441163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25910</v>
+        <v>20214</v>
       </c>
       <c r="C19" t="n">
-        <v>4246.354118795837</v>
+        <v>2976.278412994609</v>
       </c>
       <c r="D19" t="n">
-        <v>1906.047017563764</v>
+        <v>635.9713117625356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Age': np.int64(3), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22568</v>
+        <v>15096</v>
       </c>
       <c r="C20" t="n">
-        <v>2955.158541757981</v>
+        <v>4209.44231883356</v>
       </c>
       <c r="D20" t="n">
-        <v>614.8514405259079</v>
+        <v>1869.135217601486</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Age': np.int64(3), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17245</v>
+        <v>22809</v>
       </c>
       <c r="C21" t="n">
-        <v>6222.400724925114</v>
+        <v>958.2290161411431</v>
       </c>
       <c r="D21" t="n">
-        <v>3882.09362369304</v>
+        <v>-1382.07808509093</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1)}</t>
+          <t>{'GINI': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29021</v>
+        <v>15415</v>
       </c>
       <c r="C22" t="n">
-        <v>1401.707980435202</v>
+        <v>3909.763022827451</v>
       </c>
       <c r="D22" t="n">
-        <v>-938.5991207968711</v>
+        <v>1569.455921595378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29293</v>
+        <v>18214</v>
       </c>
       <c r="C23" t="n">
-        <v>3376.618546190469</v>
+        <v>1675.615283759511</v>
       </c>
       <c r="D23" t="n">
-        <v>1036.311444958395</v>
+        <v>-664.6918174725627</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16905</v>
+        <v>18231</v>
       </c>
       <c r="C24" t="n">
-        <v>4641.28726359447</v>
+        <v>2567.765575376772</v>
       </c>
       <c r="D24" t="n">
-        <v>2300.980162362396</v>
+        <v>227.4584741446988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22256</v>
+        <v>27820</v>
       </c>
       <c r="C25" t="n">
-        <v>2060.921806857401</v>
+        <v>3110.102123995851</v>
       </c>
       <c r="D25" t="n">
-        <v>-279.385294374672</v>
+        <v>769.795022763778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21517</v>
+        <v>23188</v>
       </c>
       <c r="C26" t="n">
-        <v>1554.608036444616</v>
+        <v>5816.966437870303</v>
       </c>
       <c r="D26" t="n">
-        <v>-785.6990647874572</v>
+        <v>3476.659336638229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33253</v>
+        <v>19387</v>
       </c>
       <c r="C27" t="n">
-        <v>2414.597715806006</v>
+        <v>4147.833642739099</v>
       </c>
       <c r="D27" t="n">
-        <v>74.29061457393254</v>
+        <v>1807.526541507025</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Age': np.int64(3), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27355</v>
+        <v>15730</v>
       </c>
       <c r="C28" t="n">
-        <v>4330.769757430748</v>
+        <v>4986.040708791625</v>
       </c>
       <c r="D28" t="n">
-        <v>1990.462656198674</v>
+        <v>2645.733607559551</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24150</v>
+        <v>23587</v>
       </c>
       <c r="C29" t="n">
-        <v>2618.939627923435</v>
+        <v>3426.977602174042</v>
       </c>
       <c r="D29" t="n">
-        <v>278.6325266913614</v>
+        <v>1086.670500941968</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'Age': np.int64(3)}</t>
+          <t>{'GINI': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18184</v>
+        <v>15786</v>
       </c>
       <c r="C30" t="n">
-        <v>5277.431638917058</v>
+        <v>3313.353978625743</v>
       </c>
       <c r="D30" t="n">
-        <v>2937.124537684985</v>
+        <v>973.0468773936695</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'FormalEducation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27409</v>
+        <v>16065</v>
       </c>
       <c r="C31" t="n">
-        <v>2027.093158772808</v>
+        <v>4959.317262945568</v>
       </c>
       <c r="D31" t="n">
-        <v>-313.2139424592651</v>
+        <v>2619.010161713495</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15813</v>
+        <v>21070</v>
       </c>
       <c r="C32" t="n">
-        <v>427.6763280714937</v>
+        <v>1590.651990662487</v>
       </c>
       <c r="D32" t="n">
-        <v>-1912.63077316058</v>
+        <v>-749.6551105695862</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'GINI': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18821</v>
+        <v>17057</v>
       </c>
       <c r="C33" t="n">
-        <v>3384.17273762318</v>
+        <v>3997.707860974062</v>
       </c>
       <c r="D33" t="n">
-        <v>1043.865636391106</v>
+        <v>1657.400759741989</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23980</v>
+        <v>15642</v>
       </c>
       <c r="C34" t="n">
-        <v>2716.105118301271</v>
+        <v>3350.630733051658</v>
       </c>
       <c r="D34" t="n">
-        <v>375.7980170691981</v>
+        <v>1010.323631819585</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Hobby': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18492</v>
+        <v>17270</v>
       </c>
       <c r="C35" t="n">
-        <v>1518.308014607594</v>
+        <v>1867.62820136353</v>
       </c>
       <c r="D35" t="n">
-        <v>-821.9990866244791</v>
+        <v>-472.6788998685436</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17963</v>
+        <v>20356</v>
       </c>
       <c r="C36" t="n">
-        <v>-101.5387529710462</v>
+        <v>1383.848501236791</v>
       </c>
       <c r="D36" t="n">
-        <v>-2441.845854203119</v>
+        <v>-956.4585999952828</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27456</v>
+        <v>16852</v>
       </c>
       <c r="C37" t="n">
-        <v>1181.715079650815</v>
+        <v>3149.837078595702</v>
       </c>
       <c r="D37" t="n">
-        <v>-1158.592021581258</v>
+        <v>809.5299773636289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22770</v>
+        <v>16823</v>
       </c>
       <c r="C38" t="n">
-        <v>3775.464065673236</v>
+        <v>1441.843959195062</v>
       </c>
       <c r="D38" t="n">
-        <v>1435.156964441163</v>
+        <v>-898.4631420370113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20214</v>
+        <v>25910</v>
       </c>
       <c r="C39" t="n">
-        <v>2976.278412994609</v>
+        <v>4246.354118795837</v>
       </c>
       <c r="D39" t="n">
-        <v>635.9713117625356</v>
+        <v>1906.047017563764</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Age': np.int64(3), 'Hobby': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15096</v>
+        <v>22568</v>
       </c>
       <c r="C40" t="n">
-        <v>4209.44231883356</v>
+        <v>2955.158541757981</v>
       </c>
       <c r="D40" t="n">
-        <v>1869.135217601486</v>
+        <v>614.8514405259079</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22809</v>
+        <v>17245</v>
       </c>
       <c r="C41" t="n">
-        <v>958.2290161411431</v>
+        <v>6222.400724925114</v>
       </c>
       <c r="D41" t="n">
-        <v>-1382.07808509093</v>
+        <v>3882.09362369304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1190,7 +1190,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'GINI': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1206,7 +1206,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1222,7 +1222,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1238,7 +1238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1254,7 +1254,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'GDP': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1270,7 +1270,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1286,7 +1286,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1302,7 +1302,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1318,7 +1318,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1334,7 +1334,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1350,7 +1350,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1366,7 +1366,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1382,7 +1382,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1398,7 +1398,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1414,7 +1414,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1430,7 +1430,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1446,7 +1446,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1462,7 +1462,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1478,7 +1478,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1494,353 +1494,353 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>17288</v>
+        <v>19043</v>
       </c>
       <c r="C62" t="n">
-        <v>2565.822962305302</v>
+        <v>5612.437160643574</v>
       </c>
       <c r="D62" t="n">
-        <v>225.5158610732287</v>
+        <v>3272.130059411501</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'RaceEthnicity': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>22014</v>
+        <v>15779</v>
       </c>
       <c r="C63" t="n">
-        <v>5521.987072049285</v>
+        <v>4866.3772195256</v>
       </c>
       <c r="D63" t="n">
-        <v>3181.679970817211</v>
+        <v>2526.070118293526</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'DevType': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>18145</v>
+        <v>17288</v>
       </c>
       <c r="C64" t="n">
-        <v>4249.013901088885</v>
+        <v>2565.822962305302</v>
       </c>
       <c r="D64" t="n">
-        <v>1908.706799856812</v>
+        <v>225.5158610732287</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>22370</v>
+        <v>22014</v>
       </c>
       <c r="C65" t="n">
-        <v>3186.476773538612</v>
+        <v>5521.987072049285</v>
       </c>
       <c r="D65" t="n">
-        <v>846.1696723065388</v>
+        <v>3181.679970817211</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>15339</v>
+        <v>18145</v>
       </c>
       <c r="C66" t="n">
-        <v>7918.966750714838</v>
+        <v>4249.013901088885</v>
       </c>
       <c r="D66" t="n">
-        <v>5578.659649482765</v>
+        <v>1908.706799856812</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20079</v>
+        <v>22370</v>
       </c>
       <c r="C67" t="n">
-        <v>5950.643928595566</v>
+        <v>3186.476773538612</v>
       </c>
       <c r="D67" t="n">
-        <v>3610.336827363492</v>
+        <v>846.1696723065388</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>15555</v>
+        <v>15339</v>
       </c>
       <c r="C68" t="n">
-        <v>4836.092716971086</v>
+        <v>7918.966750714838</v>
       </c>
       <c r="D68" t="n">
-        <v>2495.785615739012</v>
+        <v>5578.659649482765</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>16152</v>
+        <v>20079</v>
       </c>
       <c r="C69" t="n">
-        <v>3832.105243099399</v>
+        <v>5950.643928595566</v>
       </c>
       <c r="D69" t="n">
-        <v>1491.798141867325</v>
+        <v>3610.336827363492</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>16344</v>
+        <v>15555</v>
       </c>
       <c r="C70" t="n">
-        <v>1591.59071255439</v>
+        <v>4836.092716971086</v>
       </c>
       <c r="D70" t="n">
-        <v>-748.7163886776834</v>
+        <v>2495.785615739012</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15929</v>
+        <v>16152</v>
       </c>
       <c r="C71" t="n">
-        <v>3027.619830074138</v>
+        <v>3832.105243099399</v>
       </c>
       <c r="D71" t="n">
-        <v>687.3127288420651</v>
+        <v>1491.798141867325</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15905</v>
+        <v>16344</v>
       </c>
       <c r="C72" t="n">
-        <v>1910.554565979131</v>
+        <v>1591.59071255439</v>
       </c>
       <c r="D72" t="n">
-        <v>-429.7525352529422</v>
+        <v>-748.7163886776834</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>17563</v>
+        <v>15929</v>
       </c>
       <c r="C73" t="n">
-        <v>5587.324285242858</v>
+        <v>3027.619830074138</v>
       </c>
       <c r="D73" t="n">
-        <v>3247.017184010785</v>
+        <v>687.3127288420651</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>21900</v>
+        <v>15905</v>
       </c>
       <c r="C74" t="n">
-        <v>3938.413418209974</v>
+        <v>1910.554565979131</v>
       </c>
       <c r="D74" t="n">
-        <v>1598.106316977901</v>
+        <v>-429.7525352529422</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17456</v>
+        <v>17563</v>
       </c>
       <c r="C75" t="n">
-        <v>3557.872534128685</v>
+        <v>5587.324285242858</v>
       </c>
       <c r="D75" t="n">
-        <v>1217.565432896612</v>
+        <v>3247.017184010785</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15786</v>
+        <v>21900</v>
       </c>
       <c r="C76" t="n">
-        <v>5516.772016586426</v>
+        <v>3938.413418209974</v>
       </c>
       <c r="D76" t="n">
-        <v>3176.464915354352</v>
+        <v>1598.106316977901</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>18136</v>
+        <v>17456</v>
       </c>
       <c r="C77" t="n">
-        <v>4954.869938734231</v>
+        <v>3557.872534128685</v>
       </c>
       <c r="D77" t="n">
-        <v>2614.562837502158</v>
+        <v>1217.565432896612</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Dependents': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>15007</v>
+        <v>15786</v>
       </c>
       <c r="C78" t="n">
-        <v>4542.007572706861</v>
+        <v>5516.772016586426</v>
       </c>
       <c r="D78" t="n">
-        <v>2201.700471474787</v>
+        <v>3176.464915354352</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>18438</v>
+        <v>18136</v>
       </c>
       <c r="C79" t="n">
-        <v>1880.446978467556</v>
+        <v>4954.869938734231</v>
       </c>
       <c r="D79" t="n">
-        <v>-459.8601227645177</v>
+        <v>2614.562837502158</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>16648</v>
+        <v>15007</v>
       </c>
       <c r="C80" t="n">
-        <v>5533.824223707366</v>
+        <v>4542.007572706861</v>
       </c>
       <c r="D80" t="n">
-        <v>3193.517122475293</v>
+        <v>2201.700471474787</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18306</v>
+        <v>18438</v>
       </c>
       <c r="C81" t="n">
-        <v>3084.167241888463</v>
+        <v>1880.446978467556</v>
       </c>
       <c r="D81" t="n">
-        <v>743.8601406563894</v>
+        <v>-459.8601227645177</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>19043</v>
+        <v>16648</v>
       </c>
       <c r="C82" t="n">
-        <v>5612.437160643574</v>
+        <v>5533.824223707366</v>
       </c>
       <c r="D82" t="n">
-        <v>3272.130059411501</v>
+        <v>3193.517122475293</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>15779</v>
+        <v>18306</v>
       </c>
       <c r="C83" t="n">
-        <v>4866.3772195256</v>
+        <v>3084.167241888463</v>
       </c>
       <c r="D83" t="n">
-        <v>2526.070118293526</v>
+        <v>743.8601406563894</v>
       </c>
     </row>
   </sheetData>
